--- a/KT2/KT2.1/20170307_pvb_Genormaliseerd_Database.xlsx
+++ b/KT2/KT2.1/20170307_pvb_Genormaliseerd_Database.xlsx
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1437,92 +1437,92 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="1"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="C42" s="8"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
